--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noguchiatsushi/Documents/GitHub/KoukogakuKenkyu9/02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noguchiatsushi/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A14BAB6-5337-A448-B10A-BDBE68094BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D001D099-FDD0-324B-A8F1-14EE126297AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1260" windowWidth="17700" windowHeight="16700" firstSheet="1" activeTab="2" xr2:uid="{34562375-A586-564B-B65E-2A1F00DA1F95}"/>
+    <workbookView xWindow="240" yWindow="1040" windowWidth="26220" windowHeight="16700" firstSheet="1" activeTab="1" xr2:uid="{34562375-A586-564B-B65E-2A1F00DA1F95}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧表サンプル" sheetId="2" r:id="rId1"/>
@@ -1199,14 +1199,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A270102-4712-CB4B-8388-5980C48AFADE}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1479,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9308030B-E04F-4040-BA65-84612677AE63}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
